--- a/outputs/BURs/BUR Testing_IPS.xlsx
+++ b/outputs/BURs/BUR Testing_IPS.xlsx
@@ -11,13 +11,14 @@
     <sheet name="IPS Gearing Division" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="IPS Industrial Components Divi" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="IPS Segment Functions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="L1_IPS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Integration" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="L1_IPS" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -91,7 +92,7 @@
     <t xml:space="preserve">IPS Clutches &amp; Brakes Division</t>
   </si>
   <si>
-    <t xml:space="preserve">Voluntary Turnover Professional</t>
+    <t xml:space="preserve">Professional Voluntary Turnover</t>
   </si>
   <si>
     <t xml:space="preserve">PY Actual</t>
@@ -118,6 +119,9 @@
     <t xml:space="preserve">IPS Segment Functions</t>
   </si>
   <si>
+    <t xml:space="preserve">Integration</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1_IPS</t>
   </si>
 </sst>
@@ -125,13 +129,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -167,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -175,6 +180,7 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +559,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.0133</v>
+        <v>0.0132</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0.0096</v>
@@ -562,19 +568,19 @@
         <v>0.0058</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.0287</v>
+        <v>0.0286</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>0.0067</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.0067</v>
+        <v>0.0057</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>0.0106</v>
+        <v>0.0105</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>0.0239</v>
+        <v>0.0229</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>0.0048</v>
@@ -586,7 +592,7 @@
         <v>0.0048</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>0.0174</v>
+        <v>0.0173</v>
       </c>
       <c r="R2" s="1" t="n">
         <v>0.0068</v>
@@ -601,7 +607,7 @@
         <v>0.0176</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>0.0878</v>
+        <v>0.0866</v>
       </c>
     </row>
     <row r="3">
@@ -621,7 +627,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.01197</v>
+        <v>0.01188</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.00864</v>
@@ -630,19 +636,19 @@
         <v>0.00522</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.02583</v>
+        <v>0.02574</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>0.00603</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.00603</v>
+        <v>0.00513</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>0.00954</v>
+        <v>0.00945</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>0.02151</v>
+        <v>0.02061</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>0.00432</v>
@@ -654,7 +660,7 @@
         <v>0.00432</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>0.01566</v>
+        <v>0.01557</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>0.00612</v>
@@ -669,7 +675,7 @@
         <v>0.01584</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.07902</v>
+        <v>0.07794</v>
       </c>
     </row>
     <row r="4">
@@ -710,7 +716,7 @@
         <v>0.006925</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0277</v>
+        <v>0.020775</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>0.006925</v>
@@ -722,7 +728,7 @@
         <v>0.006925</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0277</v>
+        <v>0.020775</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>0.006925</v>
@@ -734,7 +740,7 @@
         <v>0.006925</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0277</v>
+        <v>0.020775</v>
       </c>
       <c r="V4" s="1" t="n">
         <v>0.0831</v>
@@ -1091,7 +1097,7 @@
         <v>0.0221</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="3">
@@ -1159,7 +1165,7 @@
         <v>0.01989</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>0.09324</v>
+        <v>0.09333</v>
       </c>
     </row>
     <row r="4">
@@ -1200,7 +1206,7 @@
         <v>0.00715</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0286</v>
+        <v>0.02145</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0.00715</v>
@@ -1212,7 +1218,7 @@
         <v>0.00715</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0286</v>
+        <v>0.02145</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0.00715</v>
@@ -1224,7 +1230,7 @@
         <v>0.00715</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0286</v>
+        <v>0.02145</v>
       </c>
       <c r="V4" s="2" t="n">
         <v>0.0858</v>
@@ -1540,7 +1546,7 @@
         <v>0.0158</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.033</v>
+        <v>0.0331</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>0.0126</v>
@@ -1549,7 +1555,7 @@
         <v>0.0094</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0.0172</v>
+        <v>0.0173</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>0.0392</v>
@@ -1570,16 +1576,16 @@
         <v>0.0095</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>0.016</v>
+        <v>0.0161</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0.0318</v>
+        <v>0.0319</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.1403</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="3">
@@ -1608,7 +1614,7 @@
         <v>0.01422</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.0297</v>
+        <v>0.02979</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>0.01134</v>
@@ -1617,7 +1623,7 @@
         <v>0.00846</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0.01548</v>
+        <v>0.01557</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>0.03528</v>
@@ -1638,16 +1644,16 @@
         <v>0.00855</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>0.00567</v>
+        <v>0.00576</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0.0144</v>
+        <v>0.01449</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0.02862</v>
+        <v>0.02871</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.12627</v>
+        <v>0.12654</v>
       </c>
     </row>
     <row r="4">
@@ -1688,7 +1694,7 @@
         <v>0.0077</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0308</v>
+        <v>0.0231</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>0.0077</v>
@@ -1700,7 +1706,7 @@
         <v>0.0077</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0308</v>
+        <v>0.0231</v>
       </c>
       <c r="R4" s="3" t="n">
         <v>0.0077</v>
@@ -1712,7 +1718,7 @@
         <v>0.0077</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0308</v>
+        <v>0.0231</v>
       </c>
       <c r="V4" s="3" t="n">
         <v>0.0924</v>
@@ -2043,16 +2049,16 @@
         <v>0.0313</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.023</v>
+        <v>0.0252</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.0146</v>
+        <v>0.0147</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>0.0125</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.0501</v>
+        <v>0.0523</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.0105</v>
@@ -2064,10 +2070,10 @@
         <v>0.0177</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.0453</v>
+        <v>0.0454</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.1599</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="3">
@@ -2111,16 +2117,16 @@
         <v>0.02817</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.0207</v>
+        <v>0.02268</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.01314</v>
+        <v>0.01323</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>0.01125</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.04509</v>
+        <v>0.04707</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.00945</v>
@@ -2132,10 +2138,10 @@
         <v>0.01593</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.04077</v>
+        <v>0.04086</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.14391</v>
+        <v>0.14607</v>
       </c>
     </row>
     <row r="4">
@@ -2176,7 +2182,7 @@
         <v>0.0054</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0216</v>
+        <v>0.0162</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0.0054</v>
@@ -2188,7 +2194,7 @@
         <v>0.0054</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0216</v>
+        <v>0.0162</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.0054</v>
@@ -2200,7 +2206,7 @@
         <v>0.0054</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0216</v>
+        <v>0.0162</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>0.0648</v>
@@ -2509,55 +2515,55 @@
         <v>25</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.0112</v>
+        <v>0.0102</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.0086</v>
+        <v>0.0078</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.0103</v>
+        <v>0.0094</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>0.0302</v>
+        <v>0.0275</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>0.0086</v>
+        <v>0.0078</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>0.0094</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0.0085</v>
+        <v>0.0078</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0.0265</v>
+        <v>0.0249</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>0.0077</v>
+        <v>0.007</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>0.0077</v>
+        <v>0.007</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>0.0042</v>
+        <v>0.0039</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>0.0196</v>
+        <v>0.0179</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0.0068</v>
+        <v>0.0062</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0.0077</v>
+        <v>0.007</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>0.006</v>
+        <v>0.0055</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>0.0205</v>
+        <v>0.0187</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.0966</v>
+        <v>0.0889</v>
       </c>
     </row>
     <row r="3">
@@ -2577,55 +2583,55 @@
         <v>26</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.01008</v>
+        <v>0.00918</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.00774</v>
+        <v>0.00702</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.00927</v>
+        <v>0.00846</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0.02718</v>
+        <v>0.02475</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0.00774</v>
+        <v>0.00702</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>0.00846</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0.00765</v>
+        <v>0.00702</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.02385</v>
+        <v>0.02241</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>0.00693</v>
+        <v>0.0063</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>0.00693</v>
+        <v>0.0063</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>0.00378</v>
+        <v>0.00351</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>0.01764</v>
+        <v>0.01611</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>0.00612</v>
+        <v>0.00558</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0.00693</v>
+        <v>0.0063</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>0.0054</v>
+        <v>0.00495</v>
       </c>
       <c r="U3" s="5" t="n">
-        <v>0.01845</v>
+        <v>0.01683</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.08694</v>
+        <v>0.08001</v>
       </c>
     </row>
     <row r="4">
@@ -2666,7 +2672,7 @@
         <v>0.007575</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0303</v>
+        <v>0.022725</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>0.007575</v>
@@ -2678,7 +2684,7 @@
         <v>0.007575</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0303</v>
+        <v>0.022725</v>
       </c>
       <c r="R4" s="5" t="n">
         <v>0.007575</v>
@@ -2690,7 +2696,7 @@
         <v>0.007575</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0303</v>
+        <v>0.022725</v>
       </c>
       <c r="V4" s="5" t="n">
         <v>0.0909</v>
@@ -2992,62 +2998,34 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>0.0852</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.0081</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.0305</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>0.0107</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>0.0286</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>0.0088</v>
-      </c>
-      <c r="O2" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P2" s="6" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="Q2" s="6" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="R2" s="6" t="n">
-        <v>0.0069</v>
-      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="6" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="T2" s="6" t="n">
-        <v>0.0109</v>
+        <v>0</v>
       </c>
       <c r="U2" s="6" t="n">
-        <v>0.0246</v>
+        <v>0</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>0.1097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3060,62 +3038,252 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>0.0852</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="n">
-        <v>0.01044</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>0.00729</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>0.00972</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0.02745</v>
-      </c>
-      <c r="J3" s="6" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="N2" s="7" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="O2" s="7" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="P2" s="7" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="Q2" s="7" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="R2" s="7" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="S2" s="7" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>0.0852</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0.01017</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0.00711</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>0.02673</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>0.00774</v>
+      </c>
+      <c r="K3" s="7" t="n">
         <v>0.00792</v>
       </c>
-      <c r="K3" s="6" t="n">
-        <v>0.0081</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>0.00963</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0.02574</v>
-      </c>
-      <c r="N3" s="6" t="n">
+      <c r="L3" s="7" t="n">
+        <v>0.00936</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="N3" s="7" t="n">
         <v>0.00792</v>
       </c>
-      <c r="O3" s="6" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="P3" s="6" t="n">
-        <v>0.00639</v>
-      </c>
-      <c r="Q3" s="6" t="n">
-        <v>0.0234</v>
-      </c>
-      <c r="R3" s="6" t="n">
-        <v>0.00621</v>
-      </c>
-      <c r="S3" s="6" t="n">
+      <c r="O3" s="7" t="n">
+        <v>0.00882</v>
+      </c>
+      <c r="P3" s="7" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>0.02295</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <v>0.00612</v>
       </c>
-      <c r="T3" s="6" t="n">
-        <v>0.00981</v>
-      </c>
-      <c r="U3" s="6" t="n">
-        <v>0.02214</v>
-      </c>
-      <c r="V3" s="6" t="n">
-        <v>0.09873</v>
+      <c r="S3" s="7" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <v>0.00954</v>
+      </c>
+      <c r="U3" s="7" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="V3" s="7" t="n">
+        <v>0.0963</v>
       </c>
     </row>
     <row r="4">
@@ -3123,66 +3291,66 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.0852</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>0.009</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="7" t="n">
         <v>0.0034</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>0.0223</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="7" t="n">
         <v>0.0061</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="7" t="n">
         <v>0.0071</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="7" t="n">
         <v>0.0071</v>
       </c>
-      <c r="M4" s="6" t="n">
-        <v>0.0284</v>
-      </c>
-      <c r="N4" s="6" t="n">
+      <c r="M4" s="7" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="N4" s="7" t="n">
         <v>0.0071</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <v>0.0071</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="7" t="n">
         <v>0.0071</v>
       </c>
-      <c r="Q4" s="6" t="n">
-        <v>0.0284</v>
-      </c>
-      <c r="R4" s="6" t="n">
+      <c r="Q4" s="7" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="R4" s="7" t="n">
         <v>0.0071</v>
       </c>
-      <c r="S4" s="6" t="n">
+      <c r="S4" s="7" t="n">
         <v>0.0071</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="T4" s="7" t="n">
         <v>0.0071</v>
       </c>
-      <c r="U4" s="6" t="n">
-        <v>0.0284</v>
-      </c>
-      <c r="V4" s="6" t="n">
+      <c r="U4" s="7" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="V4" s="7" t="n">
         <v>0.0852</v>
       </c>
     </row>
@@ -3191,66 +3359,66 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>0.7308</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>0.7</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>0.5833</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>0.6585</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="7" t="n">
         <v>0.7021</v>
       </c>
-      <c r="K5" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="6" t="n">
+      <c r="K5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="7" t="n">
         <v>0.6579</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>0.626</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>0.525</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>0.6739</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>0.6036</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="7" t="n">
         <v>0.7407</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="7" t="n">
         <v>0.5833</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="7" t="n">
         <v>0.7222</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="7" t="n">
         <v>0.6812</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="V5" s="7" t="n">
         <v>0.636363636363636</v>
       </c>
     </row>
@@ -3259,66 +3427,66 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="6" t="n">
+      <c r="F6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="7" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3327,66 +3495,66 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>0.5385</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <v>0.5405</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>0.5556</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>0.5426</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="7" t="n">
         <v>0.4167</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="R7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="T7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="U7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="V7" s="7" t="n">
         <v>0.516949152542373</v>
       </c>
     </row>

--- a/outputs/BURs/BUR Testing_IPS.xlsx
+++ b/outputs/BURs/BUR Testing_IPS.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.0831</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -621,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.0831</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -689,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0831</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1043,7 +1043,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0858</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1111,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0858</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1179,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0858</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1531,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0924</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1599,7 +1599,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0924</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1667,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0924</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2019,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0648</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2087,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0648</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2155,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0648</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2509,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0909</v>
+        <v>0.0498</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2577,7 +2577,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0909</v>
+        <v>0.0498</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2645,7 +2645,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0909</v>
+        <v>0.0498</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2998,7 +2998,9 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="n">
+        <v>0.0498</v>
+      </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -3038,7 +3040,9 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="n">
+        <v>0.0498</v>
+      </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -3161,7 +3165,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0852</v>
+        <v>0.0366</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3229,7 +3233,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0852</v>
+        <v>0.0366</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3297,7 +3301,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0852</v>
+        <v>0.0366</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>

--- a/outputs/BURs/BUR Testing_IPS.xlsx
+++ b/outputs/BURs/BUR Testing_IPS.xlsx
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -621,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -689,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -704,46 +704,46 @@
         <v>0.007</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.0198</v>
+        <v>0.0197</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0.008</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.006925</v>
+        <v>0.0069</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0.006925</v>
+        <v>0.00691666666666667</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.020775</v>
+        <v>0.02075</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.006925</v>
+        <v>0.00691666666666667</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.006925</v>
+        <v>0.00691666666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.006925</v>
+        <v>0.00691666666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.020775</v>
+        <v>0.02075</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.006925</v>
+        <v>0.00691666666666667</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.006925</v>
+        <v>0.00691666666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.006925</v>
+        <v>0.00691666666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.020775</v>
+        <v>0.02075</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.0831</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="5">
@@ -757,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -825,7 +825,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -893,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -914,40 +914,40 @@
         <v>0.25</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.5385</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.416666666666667</v>
+        <v>0.459459459459459</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1111,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1179,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1188,52 +1188,52 @@
         <v>0.0107</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.0035</v>
+        <v>0.0036</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0.012</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.0261</v>
+        <v>0.0263</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0024</v>
+        <v>0.006</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.00715</v>
+        <v>0.0073</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.00715</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.02145</v>
+        <v>0.023825</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.00715</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00715</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00715</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.02145</v>
+        <v>0.023825</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.00715</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00715</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00715</v>
+        <v>0.00794166666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02145</v>
+        <v>0.023825</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.0858</v>
+        <v>0.0953</v>
       </c>
     </row>
     <row r="5">
@@ -1247,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1313,7 +1313,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1381,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1399,43 +1399,43 @@
         <v>0.3125</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.3333</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.35</v>
+        <v>0.318181818181818</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1599,7 +1599,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1667,61 +1667,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.0097</v>
+        <v>0.0096</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.0114</v>
+        <v>0.0113</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.021</v>
+        <v>0.0209</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.0098</v>
+        <v>0.0113</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.0147</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.00935833333333333</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0231</v>
+        <v>0.028075</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.00935833333333333</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.00935833333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.00935833333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0231</v>
+        <v>0.028075</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.00935833333333333</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.00935833333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.00935833333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0231</v>
+        <v>0.028075</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.0924</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="5">
@@ -1735,7 +1735,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1803,7 +1803,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1871,7 +1871,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1890,40 +1890,40 @@
         <v>0.4</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2087,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2155,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2173,43 +2173,43 @@
         <v>0.0194</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.0022</v>
+        <v>0.0043</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.0054</v>
+        <v>0.0197</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0054</v>
+        <v>0.00865833333333333</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0162</v>
+        <v>0.025975</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.0054</v>
+        <v>0.00865833333333333</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0054</v>
+        <v>0.00865833333333333</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0054</v>
+        <v>0.00865833333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0162</v>
+        <v>0.025975</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0054</v>
+        <v>0.00865833333333333</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0054</v>
+        <v>0.00865833333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0054</v>
+        <v>0.00865833333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0162</v>
+        <v>0.025975</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.0648</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="5">
@@ -2223,7 +2223,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2291,7 +2291,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2359,7 +2359,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2380,40 +2380,40 @@
         <v>0.3333</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.5</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.529411764705882</v>
+        <v>0.526315789473684</v>
       </c>
     </row>
   </sheetData>
@@ -2509,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2577,7 +2577,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2645,61 +2645,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0085</v>
+        <v>0.0084</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.0042</v>
+        <v>0.0041</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.011</v>
+        <v>0.0109</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.0236</v>
+        <v>0.0234</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0068</v>
+        <v>0.0067</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.007575</v>
+        <v>0.0067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.007575</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.022725</v>
+        <v>0.022075</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.007575</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.007575</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.007575</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.022725</v>
+        <v>0.022075</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.007575</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.007575</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.007575</v>
+        <v>0.00735833333333333</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.022725</v>
+        <v>0.022075</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.0909</v>
+        <v>0.0883</v>
       </c>
     </row>
     <row r="5">
@@ -2713,7 +2713,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2849,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2858,52 +2858,52 @@
         <v>0.6842</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7</v>
+        <v>0.7273</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>0.6667</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.6875</v>
+        <v>0.697</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0.5</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.65</v>
+        <v>0.642857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2999,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3041,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>0.0498</v>
+        <v>0.0533</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3165,7 +3165,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0366</v>
+        <v>0.0454</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3233,7 +3233,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0366</v>
+        <v>0.0454</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3301,7 +3301,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0366</v>
+        <v>0.0454</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3319,43 +3319,43 @@
         <v>0.0223</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0061</v>
+        <v>0.0073</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.0095</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0213</v>
+        <v>0.02345</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0213</v>
+        <v>0.02345</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0071</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0213</v>
+        <v>0.02345</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.0852</v>
+        <v>0.0938</v>
       </c>
     </row>
     <row r="5">
@@ -3369,7 +3369,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3437,7 +3437,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3505,7 +3505,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -3514,52 +3514,52 @@
         <v>0.5385</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>0.5405</v>
+        <v>0.5526</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>0.5556</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>0.5426</v>
+        <v>0.5474</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.4167</v>
+        <v>0.3913</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.45</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.516949152542373</v>
+        <v>0.507246376811594</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/BURs/BUR Testing_IPS.xlsx
+++ b/outputs/BURs/BUR Testing_IPS.xlsx
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.0533</v>
+        <v>0.0425</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -621,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.0533</v>
+        <v>0.0425</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -689,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0533</v>
+        <v>0.0425</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -707,43 +707,43 @@
         <v>0.0197</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.008</v>
+        <v>0.0079</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>0.0069</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0.00691666666666667</v>
+        <v>0.0079</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.02075</v>
+        <v>0.0228</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.00691666666666667</v>
+        <v>0.00708333333333333</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.00691666666666667</v>
+        <v>0.00708333333333333</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.00691666666666667</v>
+        <v>0.00708333333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.02075</v>
+        <v>0.02125</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.00691666666666667</v>
+        <v>0.00708333333333333</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.00691666666666667</v>
+        <v>0.00708333333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.00691666666666667</v>
+        <v>0.00708333333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.02075</v>
+        <v>0.02125</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.083</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="5">
@@ -757,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -825,7 +825,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -893,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -917,37 +917,37 @@
         <v>0.5385</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.75</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.5238</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.459459459459459</v>
+        <v>0.48780487804878</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0533</v>
+        <v>0.0493</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1111,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0533</v>
+        <v>0.0493</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1179,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0533</v>
+        <v>0.0493</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1188,52 +1188,52 @@
         <v>0.0107</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.0036</v>
+        <v>0.0035</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0.012</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.0263</v>
+        <v>0.0262</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0.006</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.0073</v>
+        <v>0.0085</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.00794166666666667</v>
+        <v>0.0086</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.023825</v>
+        <v>0.023</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.00794166666666667</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00794166666666667</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00794166666666667</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.023825</v>
+        <v>0.02465</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.00794166666666667</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00794166666666667</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00794166666666667</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.023825</v>
+        <v>0.02465</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.0953</v>
+        <v>0.0986</v>
       </c>
     </row>
     <row r="5">
@@ -1247,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1313,7 +1313,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1381,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.5714</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3125</v>
+        <v>0.2667</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>0.3333</v>
@@ -1405,37 +1405,37 @@
         <v>0.3333</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.625</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.318181818181818</v>
+        <v>0.379310344827586</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.0533</v>
+        <v>0.065</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1599,7 +1599,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.0533</v>
+        <v>0.065</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1667,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.0533</v>
+        <v>0.065</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1685,43 +1685,43 @@
         <v>0.0209</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.0113</v>
+        <v>0.0114</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.0147</v>
+        <v>0.0164</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.00935833333333333</v>
+        <v>0.0165</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.028075</v>
+        <v>0.0442</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.00935833333333333</v>
+        <v>0.0108333333333333</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.00935833333333333</v>
+        <v>0.0108333333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.00935833333333333</v>
+        <v>0.0108333333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.028075</v>
+        <v>0.0325</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.00935833333333333</v>
+        <v>0.0108333333333333</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.00935833333333333</v>
+        <v>0.0108333333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.00935833333333333</v>
+        <v>0.0108333333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.028075</v>
+        <v>0.0325</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.1123</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1735,7 +1735,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1803,7 +1803,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1871,7 +1871,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1893,37 +1893,37 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.4286</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.3846</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.0543</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2087,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.0543</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2155,22 +2155,22 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0533</v>
+        <v>0.0543</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.0086</v>
+        <v>0.0108</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0021</v>
+        <v>0.0022</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0.0087</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0194</v>
+        <v>0.0216</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>0.0043</v>
@@ -2179,37 +2179,37 @@
         <v>0.0197</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.00865833333333333</v>
+        <v>0.0088</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.025975</v>
+        <v>0.0327</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.00865833333333333</v>
+        <v>0.00905</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00865833333333333</v>
+        <v>0.00905</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00865833333333333</v>
+        <v>0.00905</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.025975</v>
+        <v>0.02715</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.00865833333333333</v>
+        <v>0.00905</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00865833333333333</v>
+        <v>0.00905</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00865833333333333</v>
+        <v>0.00905</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.025975</v>
+        <v>0.02715</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.1039</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="5">
@@ -2223,7 +2223,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2291,7 +2291,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2359,7 +2359,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2383,37 +2383,37 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.4545</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.526315789473684</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -2509,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.048</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2577,7 +2577,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.048</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2645,61 +2645,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.048</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0084</v>
+        <v>0.0085</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>0.0109</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.0234</v>
+        <v>0.0235</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0067</v>
+        <v>0.0068</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.0067</v>
+        <v>0.0076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.0101</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.022075</v>
+        <v>0.0245</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.008</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.008</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.008</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.022075</v>
+        <v>0.024</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.008</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.00735833333333333</v>
+        <v>0.008</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.022075</v>
+        <v>0.024</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.0883</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="5">
@@ -2713,7 +2713,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2849,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2873,37 +2873,37 @@
         <v>0</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.642857142857143</v>
+        <v>0.638297872340426</v>
       </c>
     </row>
   </sheetData>
@@ -2998,9 +2998,7 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>0.0533</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
         <v>25</v>
       </c>
@@ -3040,9 +3038,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>0.0533</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -3165,7 +3161,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0454</v>
+        <v>0.0502</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3233,7 +3229,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0454</v>
+        <v>0.0502</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3301,13 +3297,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0454</v>
+        <v>0.0502</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.009</v>
+        <v>0.0092</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>0.0034</v>
@@ -3316,46 +3312,46 @@
         <v>0.01</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.0223</v>
+        <v>0.0225</v>
       </c>
       <c r="J4" s="7" t="n">
         <v>0.0073</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.0095</v>
+        <v>0.0103</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.0101</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.02345</v>
+        <v>0.0276</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00836666666666667</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00836666666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00836666666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.02345</v>
+        <v>0.0251</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00836666666666667</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00836666666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00836666666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.02345</v>
+        <v>0.0251</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.0938</v>
+        <v>0.1004</v>
       </c>
     </row>
     <row r="5">
@@ -3369,7 +3365,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3437,7 +3433,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3505,7 +3501,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -3517,10 +3513,10 @@
         <v>0.5526</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>0.5556</v>
+        <v>0.5294</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>0.5474</v>
+        <v>0.5426</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>0.3913</v>
@@ -3529,37 +3525,37 @@
         <v>0.45</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.5667</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.4795</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.507246376811594</v>
+        <v>0.514970059880239</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/BURs/BUR Testing_IPS.xlsx
+++ b/outputs/BURs/BUR Testing_IPS.xlsx
@@ -553,7 +553,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.0425</v>
+        <v>0.0502</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -621,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.0425</v>
+        <v>0.0502</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -689,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0425</v>
+        <v>0.0502</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -701,10 +701,10 @@
         <v>0.0049</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.007</v>
+        <v>0.0069</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.0197</v>
+        <v>0.0196</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0.0079</v>
@@ -716,34 +716,34 @@
         <v>0.0079</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0228</v>
+        <v>0.0227</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.00708333333333333</v>
+        <v>0.008</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.00708333333333333</v>
+        <v>0.007175</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.00708333333333333</v>
+        <v>0.007175</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.02125</v>
+        <v>0.021525</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.00708333333333333</v>
+        <v>0.007175</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.00708333333333333</v>
+        <v>0.007175</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.00708333333333333</v>
+        <v>0.007175</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.02125</v>
+        <v>0.021525</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.085</v>
+        <v>0.0861</v>
       </c>
     </row>
     <row r="5">
@@ -757,7 +757,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -825,7 +825,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -893,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -923,31 +923,31 @@
         <v>0.5238</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.48780487804878</v>
+        <v>0.511627906976744</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0493</v>
+        <v>0.0541</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1111,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0493</v>
+        <v>0.0541</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1179,7 +1179,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0493</v>
+        <v>0.0541</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1203,37 +1203,37 @@
         <v>0.0085</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.0086</v>
+        <v>0.0085</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0.023</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.00821666666666667</v>
+        <v>0.0049</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00821666666666667</v>
+        <v>0.007725</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00821666666666667</v>
+        <v>0.007725</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.02465</v>
+        <v>0.023175</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.00821666666666667</v>
+        <v>0.007725</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00821666666666667</v>
+        <v>0.007725</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00821666666666667</v>
+        <v>0.007725</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02465</v>
+        <v>0.023175</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.0986</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="5">
@@ -1247,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1313,7 +1313,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1381,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2667</v>
+        <v>0.2143</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>0.3333</v>
@@ -1405,37 +1405,37 @@
         <v>0.3333</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.625</v>
+        <v>0.5714</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4615</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.9722</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.379310344827586</v>
+        <v>0.698412698412698</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.065</v>
+        <v>0.0786</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1599,7 +1599,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.065</v>
+        <v>0.0786</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1667,61 +1667,61 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.065</v>
+        <v>0.0786</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.0096</v>
+        <v>0.0097</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.0113</v>
+        <v>0.0114</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.0209</v>
+        <v>0.0211</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>0.0114</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.0164</v>
+        <v>0.0165</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.0165</v>
+        <v>0.0166</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0442</v>
+        <v>0.0445</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.0108333333333333</v>
+        <v>0.0133</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0108333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0108333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0325</v>
+        <v>0.033675</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.0108333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0108333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0108333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0325</v>
+        <v>0.033675</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1347</v>
       </c>
     </row>
     <row r="5">
@@ -1735,7 +1735,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1803,7 +1803,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1871,20 +1871,20 @@
         <v>28</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.5</v>
+        <v>0.5714</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>0.75</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="n">
-        <v>0.5833</v>
+        <v>0.6364</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>0.4</v>
@@ -1893,37 +1893,37 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="3" t="n">
         <v>0.4286</v>
       </c>
-      <c r="M7" s="3" t="n">
-        <v>0.3846</v>
-      </c>
       <c r="N7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.48</v>
+        <v>0.466666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.0543</v>
+        <v>0.0632</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2087,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.0543</v>
+        <v>0.0632</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2155,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.0543</v>
+        <v>0.0632</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2170,7 +2170,7 @@
         <v>0.0087</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0216</v>
+        <v>0.0217</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>0.0043</v>
@@ -2185,31 +2185,31 @@
         <v>0.0327</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.00905</v>
+        <v>0.0088</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00905</v>
+        <v>0.009025</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00905</v>
+        <v>0.009025</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.02715</v>
+        <v>0.027075</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.00905</v>
+        <v>0.009025</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00905</v>
+        <v>0.009025</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00905</v>
+        <v>0.009025</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.02715</v>
+        <v>0.027075</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.1086</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="5">
@@ -2223,7 +2223,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2291,7 +2291,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2359,7 +2359,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2389,31 +2389,31 @@
         <v>0.4545</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.7143</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5625</v>
       </c>
     </row>
   </sheetData>
@@ -2509,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.048</v>
+        <v>0.059</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -2577,7 +2577,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.048</v>
+        <v>0.059</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2645,7 +2645,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.048</v>
+        <v>0.059</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2663,7 +2663,7 @@
         <v>0.0235</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0068</v>
+        <v>0.0067</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.0076</v>
@@ -2672,34 +2672,34 @@
         <v>0.0101</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0245</v>
+        <v>0.0244</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.008</v>
+        <v>0.0111</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.008</v>
+        <v>0.008425</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.008</v>
+        <v>0.008425</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.024</v>
+        <v>0.025275</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.008</v>
+        <v>0.008425</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.008</v>
+        <v>0.008425</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.008</v>
+        <v>0.008425</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.024</v>
+        <v>0.025275</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.096</v>
+        <v>0.1011</v>
       </c>
     </row>
     <row r="5">
@@ -2713,7 +2713,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2849,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2879,31 +2879,31 @@
         <v>0.5</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.75</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.638297872340426</v>
+        <v>0.654545454545455</v>
       </c>
     </row>
   </sheetData>
@@ -3161,7 +3161,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>0.0502</v>
+        <v>0.0592</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -3229,7 +3229,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.0502</v>
+        <v>0.0592</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3297,7 +3297,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.0502</v>
+        <v>0.0592</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3318,7 +3318,7 @@
         <v>0.0073</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.0103</v>
+        <v>0.0102</v>
       </c>
       <c r="L4" s="7" t="n">
         <v>0.0101</v>
@@ -3327,31 +3327,31 @@
         <v>0.0276</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.00836666666666667</v>
+        <v>0.0091</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.00836666666666667</v>
+        <v>0.00845833333333333</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.00836666666666667</v>
+        <v>0.00845833333333333</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0251</v>
+        <v>0.025375</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.00836666666666667</v>
+        <v>0.00845833333333333</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.00836666666666667</v>
+        <v>0.00845833333333333</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.00836666666666667</v>
+        <v>0.00845833333333333</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0251</v>
+        <v>0.025375</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1004</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="5">
@@ -3365,7 +3365,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3433,7 +3433,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3501,22 +3501,22 @@
         <v>28</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>0.5385</v>
+        <v>0.5526</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>0.5526</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>0.5294</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>0.5426</v>
+        <v>0.5435</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>0.3913</v>
@@ -3531,31 +3531,31 @@
         <v>0.4795</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.8448</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.514970059880239</v>
+        <v>0.600896860986547</v>
       </c>
     </row>
   </sheetData>
